--- a/Anastasia.xlsx
+++ b/Anastasia.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$E$1</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>Nr</t>
   </si>
@@ -56,13 +59,34 @@
   </si>
   <si>
     <t>стр. 45</t>
+  </si>
+  <si>
+    <t>Л. Н. Толстой</t>
+  </si>
+  <si>
+    <t>Война и мир I</t>
+  </si>
+  <si>
+    <t>Война и мир II</t>
+  </si>
+  <si>
+    <t>Война и мир III</t>
+  </si>
+  <si>
+    <t>стр. 23</t>
+  </si>
+  <si>
+    <t>стр. 156</t>
+  </si>
+  <si>
+    <t>стр. 233</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,13 +94,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -93,10 +130,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -401,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,19 +453,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -436,7 +473,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>44492</v>
       </c>
       <c r="C2" t="s">
@@ -453,7 +490,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>44492</v>
       </c>
       <c r="C3" t="s">
@@ -470,7 +507,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>45228</v>
       </c>
       <c r="C4" t="s">
@@ -483,7 +520,60 @@
         <v>13</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45231</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45248</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>45280</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:E1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Anastasia.xlsx
+++ b/Anastasia.xlsx
@@ -116,7 +116,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -124,16 +124,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -441,7 +457,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection sqref="A1:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,121 +469,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>44492</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>44492</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>45228</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>45231</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <v>45248</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="3">
         <v>45280</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>20</v>
       </c>
     </row>
